--- a/交通仿真软件-未来-开发日志和bugshooting-性价比清单-开发清单.xlsx
+++ b/交通仿真软件-未来-开发日志和bugshooting-性价比清单-开发清单.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\TrafficSim\TranMACASims\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\software\TrafficSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>开发计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,30 +54,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>修改核心模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加Data Visualization模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加路网编辑模块（用户交互式GUI）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>undone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改核心模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加Data Visualization模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>undone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加路网编辑模块（用户交互式GUI）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>undone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>udone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改完善用户界面。启用多窗口GUI界面指引。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,14 +175,22 @@
   </si>
   <si>
     <t>创建交通仿真软件论坛。后续功能增加和升级计划，根据论坛反馈获取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,10 +555,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="67.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.375" bestFit="1" customWidth="1"/>
@@ -570,65 +566,65 @@
     <col min="7" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -637,10 +633,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
@@ -650,22 +646,24 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20170601</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>4</v>
@@ -674,56 +672,60 @@
         <v>5</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20171201</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20180120</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -732,11 +734,11 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -746,11 +748,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -760,12 +762,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -776,15 +778,15 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -794,15 +796,15 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -812,13 +814,13 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -828,12 +830,12 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -844,7 +846,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -858,12 +860,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -874,12 +876,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -890,7 +892,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -902,7 +904,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -914,7 +916,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -926,7 +928,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -938,7 +940,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -950,7 +952,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -962,7 +964,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -974,7 +976,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -986,7 +988,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -998,7 +1000,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1010,7 +1012,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1022,7 +1024,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1034,7 +1036,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1046,7 +1048,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1058,7 +1060,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1070,7 +1072,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1082,7 +1084,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1094,7 +1096,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1106,7 +1108,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1118,7 +1120,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1130,7 +1132,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1142,7 +1144,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1154,7 +1156,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1166,7 +1168,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
